--- a/DSA2/task11stack/student.xlsx
+++ b/DSA2/task11stack/student.xlsx
@@ -11,33 +11,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
   <si>
     <t>sourabh</t>
   </si>
   <si>
-    <t>singing</t>
-  </si>
-  <si>
-    <t>dancing</t>
-  </si>
-  <si>
-    <t>arrangmnet</t>
-  </si>
-  <si>
-    <t>organizer</t>
-  </si>
-  <si>
-    <t>gaming</t>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>HM</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>avi</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>rahul</t>
+  </si>
+  <si>
+    <t>BM</t>
   </si>
   <si>
     <t>monu</t>
   </si>
   <si>
-    <t>avi</t>
-  </si>
-  <si>
-    <t>rahul</t>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>arpit</t>
+  </si>
+  <si>
+    <t>rishabh</t>
+  </si>
+  <si>
+    <t>vishal</t>
+  </si>
+  <si>
+    <t>rakesh</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>mohit</t>
+  </si>
+  <si>
+    <t>EM</t>
   </si>
 </sst>
 </file>
@@ -317,36 +356,36 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>5</v>
@@ -354,22 +393,122 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
